--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,219 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>tag_news</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>paragraphs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>published_time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Woman jailed for minimum 20 years for murdering her partner in Northampton</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Northampton</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>A primary school teacher who murdered her boyfriend and buried his body in their back garden has been sentenced to life in prison with a minimum term of 20 years.
-Fiona Beal, 50, stabbed and killed her partner, Nicholas Billingham, 42, at their home in Northampton in 2021. His remains were discovered in March 2022, four and a half months after he had last been seen.
-Beal originally denied murder and pleaded guilty to manslaughter, but changed her plea and admitted murder part-way through her trial at the Old Bailey in April.
-The trial heard how police had uncovered Beal’s actions, and discovered Billingham’s body, after reading entries in her diary in which she had written: “Moving a body is much more difficult than it looks on TV.”
-More details soon …</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>['Jessica Murray']</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Thu 30 May 2024 15.04 BST</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Call for UK crackdown on plastic packaging to drive green economy</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>DS Smith</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Whoever wins the UK general election must tighten regulations to slash the use of plastic packaging, match global standards and drive “green consumption”, the boss of one of the sector’s biggest manufacturers has urged.
-Miles Roberts, the chief executive of the packaging firm DS Smith, made the call to the next government as the company celebrated surpassing its target to replace more than 1bn pieces of plastic 16 months early.
-The FTSE 100 company works with dozens of international firms including Coca-Cola and Tesco to come up with alternatives to plastic tubs, pots and boxes.
-DS Smith said clever design by its team of more than 700 experts working in partnership with leading food, drink and cleaning product makers had led to the removal of 1.2bn pieces of plastic from its products, including 274m in the UK – which led the field.
-Roberts said EU regulations had been vital in “really supporting the much greater use of material” that was recycled and recyclable.
-He said: “It is important to note that if our customers – the biggest [grocery] brands – are to remove plastics at scale and at pace, they need the right regulatory framework around them. What we need are stronger, harmonised, global, regulations that level the playing field, to help businesses move away from plastic..
-“If a new government wants more of a green economy, then recyclability is part of that. It is not enough to have a few windmills in the sea, not just green energy, but green consumption and clearing up our messes.”
-DS Smith has cut down plastic by helping companies switch to cardboard-based punnets for fruit and vegetables and replacing plastic wrap around multibottle drinks packs, for example
-The company last month agreed to be taken over by a bigger US rival, International Paper, in a £5.8bn all-share deal. However, a question mark over the plan emerged last week after Suzano, which is the world’s biggest pulp producer and Latin America’s largest paper manufacturer, said it intended to buy International Paper in a deal conditional on the DS Smith bid being dropped.
-Roberts said more change was needed to the packaging market or the UK would fall behind its neighbours, with recycling rates in England getting worse, not better.
-He called for the revival of UK plans to charge packaging users for the reprocessing of waste and to simplify recycling by local authorities.
-There are more than 100 different systems operated by councils but consistently separating out key reusable waste such as glass or card would mean re processers would have a more reliable source of materials and invest in new plants.
-“I would like to see a clearer regulatory framework if we are going to deal with these challenges,” Roberts said. “Why not use systems that are already working in other countries?”
-This month the UK government confirmed plans to simplify and standardise recycling practices across England, echoing rules already in place in Scotland and Wales.
-It has held back from forcing local authorities to separately collect glass, metal, plastic, paper and card – as desired by many recycling businesses – saying these can be collected in one “dry waste” box while food waste and garden waste must be collected separately. The rules will apply from 31 March next year but some authorities have been given leeway on certain aspects until as late as 2043.
-That comes after Rishi Sunak bragged of having scrapped a proposal to “force you to have seven different bins in your home” even though such a move was not really on the cards.
-The government has also promised UK-wide extended producer responsibility and deposit return schemes, under which producers will pay about £1.2bn in annual fees to help authorities collect and manage packaging waste. They will also have to indicate on a label if packaging is recyclable.
-However, the EPR scheme is not due to start until next year, after being postponed a year. Bottle deposit return schemes have also been delayed across the UK until 2027.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>['Sarah Butler']</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Thu 30 May 2024 14.13 BST</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Blocked Labour candidate Faiza Shaheen to challenge deselection</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Labour</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Faiza Shaheen, the candidate blocked by Labour from standing in Chingford and Woodford Green, has announced she will challenge the decision in the courts, claiming she has faced “a systematic campaign of racism, Islamophobia and bullying”.
-Citing a series of recent issues, including having a local organiser removed from her team and being blocked from producing videos blaming inflation on “corporate greed,” Shaheen claimed Keir Starmer’s party had “a problem with black and brown people”.
-“This campaign of prejudice, bullying and spiteful behaviour has finally been rewarded by Labour’s NEC [national executive committee] and my name has been added to the list of those not welcome in the candidate club. And it is no surprise that many of those excluded are people of colour,” she said in a statement.
-“I have come to the inescapable conclusion that Labour, far from being a broad church encompassing different views, has an ingrained culture of bullying, a palpable problem with black and brown people, and thinks nothing of dragging a person’s good name through the mud in pursuit of a factional agenda, with no thought of the impact on committed members’ mental health and wellbeing.”
-Shaheen’s campaign team said she had instructed a lawyer, and was seeking to challenge her exclusion on Wednesday by a panel of Labour’s ruling NEC.
-Labour’s rule book says members are “entitled to dignity and respect and to be treated fairly” by the party.
-The leftwinger, who stood in the north-east London seat in 2019, is an academic who specialises in the study of inequality. She grew up in the constituency.
-Shaheen said she was given five and a half hours’ notice of an NEC panel meeting on Tuesday to discuss her social media activity.
-“My husband was at work and I undertook the interview with three members of Labour’s national executive with a crying baby on my lap, with no time to prepare, and feeling very poorly with mastitis,” she said in her statement.
-Shaheen was presented with a dossier of posts that she had liked on X, some dating back to 2014. The most recent had prompted a complaint from the Jewish Labour Movement.
-Shaheen told BBC Newsnight on Wednesday: “It was the middle of the night, if you look at the time. I was probably with the baby, breastfeeding. I don’t even remember liking that tweet.”
-Asked whether she could see why the tweet was offensive, she said: “It plays into a trope and I absolutely don’t agree with that and I’m sorry about that.”
-Shaheen was informed by email on Wednesday evening that she had been blocked from standing as a Labour candidate – a message she says she received after the news had already appeared in the media.
-Shaheen claimed she was unable to participate fully in the panel meeting because her five-month-old baby was crying.
-Diane Abbott, who has said she still hopes to stand again for Labour in Hackney North and Stoke Newington despite suggestions she too may be blocked, described Labour’s treatment of Shaheen as “appalling”.
-She posted on X: “Whose clever idea has it been to have a cull of left wingers?”.
-Shaheen had been expected to beat the Conservative candidate Iain Duncan Smith, who has represented the seat since it was created in 1992.
-Her exclusion came as a string of more centrist members, including the director of the pro-Starmer campaign group Labour Together, Josh Simons, were installed as candidates.
-Labour’s internal party processes mean that if a snap election is called, as in this case, the NEC wields immense power over selections, with little or no involvement by grassroots party members.
-The shadow chief secretary to the Treasury, Darren Jones, denied the decisions about Abbott, Shaheen and others were being made on a factional basis.
-“I don’t think that’s true,” he told Times Radio on Thursday. “I mean, there are many colleagues of mine in the parliamentary Labour party who would define themselves as being on the left who are endorsed Labour party candidates standing in their constituency.”</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>['Heather Stewart']</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Thu 30 May 2024 14.06 BST</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Man sentenced for dumping bodies of giant tortoises in Devon woodland</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Animal welfare</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>An animal enthusiast has admitted dumping the bodies of 10 giant tortoises in Devon woodland after they died from the cold when the heating failed over Christmas.
-Gary Priddle, 56, an electrician who kept more than 50 tortoises at his home in Exeter, had left the animals alone over the festive period and when he returned the 10 Aldabra tortoises were dead.
-Priddle received a community order including 50 hours of unpaid work and was banned from keeping tortoises for 10 years.
-The district judge Stuart Smith told him: “These 10 tortoises were exotic reptiles which were not native to this country or this climate. They were unique and required very specific knowledge and care. They were entirely dependent and reliant on you to meet their needs.
-“You described them as your pride and joy but for six days you prioritised your festive celebrations over their care and completely ignored your responsibility to them, not checking on them for that time.
-“You failed to notice the heating lamp had failed and these magnificent creatures have all died from the cold conditions.”
-The judge said Priddle had panicked and hidden their bodies. He said: “Members of the public will be shocked and distressed to hear about the sad deaths of these 10 very impressive animals.”
-Priddle has surrendered more than 50 other tortoises found at his home to police. Devon and Cornwall police said they had been rehomed.
-Prosecuting, Samantha Rogers said the dead tortoises were found in woodland including at the National Trust’s Killerton estate in January.
-Rogers said: “Police were contacted by a member of the public who advised he had seen the tortoises at an address when he was viewing that address for sale.” The prosecutor said Priddle had had the giant tortoises since they were hatchlings 15 years ago.
-Postmortem examinations found the tortoises had died from metabolic bone disease linked to “poor husbandry”, as well as a “lack of acute heating during one of the coldest periods of the year”, Rogers said.
-The judge imposed an order disqualifying Priddle from owning or looking after tortoises for 10 years.
-Insp Mark Arthurs, of Devon and Cornwall police, said: “It sadly serves as a reminder to all animal and pet owners that they always have a responsibility for the wellbeing of their animals.
-“Those that are struggling with achieving this should reach out to the wealth of charities, who can support them in this.”
-The RSPCA’s senior scientific officer Evie Button said: “Exotic pets have the same needs as they would in the wild. Unfortunately many people are unaware of how much of a commitment exotic pets are when they take them on. That’s why it’s vital prospective owners always do their research before taking on any animal.”
-Priddle admitted failing to meet the needs of the tortoises by not checking on their welfare or heating system, which “failed and led to the animals’ deaths”, contrary to the Animal Welfare Act 2006.
-He also pleaded guilty to leaving the tortoises in areas of east Devon, in places where the Environmental Protection Act 1990 applied.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>['Steven Morris']</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Thu 30 May 2024 14.05 BST</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>